--- a/Resource/excel/table/K-框架-执行输出-(框架定义,策划填写).xlsx
+++ b/Resource/excel/table/K-框架-执行输出-(框架定义,策划填写).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Frame\trunk\_resource\excel\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\FighterServer\Resource\excel\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -233,7 +233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>执行id</t>
   </si>
@@ -323,6 +323,14 @@
   </si>
   <si>
     <t>ExecuteData=1,std::vector&lt;{}&gt;,输出执行列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1901,12 +1909,47 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="2">
+        <v>10001</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B9" s="2">
+        <v>10002</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="2">
+        <v>200</v>
+      </c>
+    </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3"/>
+      <c r="B10" s="2">
+        <v>10002</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="2">
+        <v>300</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>

--- a/Resource/excel/table/K-框架-执行输出-(框架定义,策划填写).xlsx
+++ b/Resource/excel/table/K-框架-执行输出-(框架定义,策划填写).xlsx
@@ -897,7 +897,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1939,7 +1939,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B10" s="2">
-        <v>10002</v>
+        <v>10003</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>24</v>
